--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nauka\Programy\Programy JAVA\MY PROJECT\RegressionMethod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nauka\Programy\Programy JAVA\MY PROJECT\Linear-Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653E0E39-7196-475D-9679-2DD3BE187873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62E06D5-71E1-43FE-A498-D1E588AA7829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3144" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -380,7 +384,40 @@
         <v>3.1</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>